--- a/excel/类型2分析.xlsx
+++ b/excel/类型2分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\G\exercise\github\2022_model\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F3BDA-6C91-4558-AEF6-6ABABAF1FCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6EA763-521C-4127-99F8-947F940D61E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1C42F13-FF89-47E6-92BB-F6D174661C87}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="9420" xr2:uid="{B1C42F13-FF89-47E6-92BB-F6D174661C87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>文物重复数</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -52,6 +52,42 @@
   </si>
   <si>
     <t>表面风化</t>
+  </si>
+  <si>
+    <t>深蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅绿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深绿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">浅蓝 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝绿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -462,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E7383C-C6D8-458E-8772-B8676CC2A4FB}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -490,13 +526,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
-        <v>2</v>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -504,19 +540,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <v>8</v>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -524,21 +560,21 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -546,11 +582,11 @@
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>3</v>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,11 +599,11 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
-        <v>3</v>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,16 +616,16 @@
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
-        <v>4</v>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
@@ -597,16 +633,16 @@
       <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="2">
-        <v>4</v>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
@@ -614,33 +650,33 @@
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
-        <v>5</v>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="2">
-        <v>5</v>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -648,16 +684,16 @@
       <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
-        <v>7</v>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
@@ -665,8 +701,8 @@
       <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
-        <v>7</v>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -674,7 +710,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -682,8 +718,8 @@
       <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
-        <v>6</v>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -691,33 +727,33 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
-        <v>6</v>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
-        <v>6</v>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -733,8 +769,8 @@
       <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="2">
-        <v>9</v>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -750,8 +786,8 @@
       <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="D17" s="2">
-        <v>9</v>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
